--- a/src/test/resources/testdata/HotelsScripts_Skytravelers.xlsx
+++ b/src/test/resources/testdata/HotelsScripts_Skytravelers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AF265C-63C1-4ED0-9291-1F9CE03F7257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7842B037-10B0-458D-8E06-3F047FC1BA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{512D99D7-B637-4054-871A-E0DB86511A8A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="120">
   <si>
     <t>TestRun</t>
   </si>
@@ -246,13 +246,166 @@
   </si>
   <si>
     <t>Israel</t>
+  </si>
+  <si>
+    <t>WXOlqr3292</t>
+  </si>
+  <si>
+    <t>WXOlqr3293</t>
+  </si>
+  <si>
+    <t>WXOlqr3294</t>
+  </si>
+  <si>
+    <t>WXOlqr3295</t>
+  </si>
+  <si>
+    <t>WXOlqr3296</t>
+  </si>
+  <si>
+    <t>WXOlqr3297</t>
+  </si>
+  <si>
+    <t>WXOlqr3298</t>
+  </si>
+  <si>
+    <t>WXOlqr3299</t>
+  </si>
+  <si>
+    <t>WXOlqr3300</t>
+  </si>
+  <si>
+    <t>WXOlqr3301</t>
+  </si>
+  <si>
+    <t>Indiranagar</t>
+  </si>
+  <si>
+    <t>BTM Layout</t>
+  </si>
+  <si>
+    <t>Hebbal</t>
+  </si>
+  <si>
+    <t>Anna Nagar</t>
+  </si>
+  <si>
+    <t>Tambaram</t>
+  </si>
+  <si>
+    <t>Perambur</t>
+  </si>
+  <si>
+    <t>Powai</t>
+  </si>
+  <si>
+    <t>Kurla</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Bandra</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Andheri</t>
+  </si>
+  <si>
+    <t>Egmore</t>
+  </si>
+  <si>
+    <t>Velachery</t>
+  </si>
+  <si>
+    <t>Rajajinagar</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>Thiruvananthapuram</t>
+  </si>
+  <si>
+    <t>Kochi</t>
+  </si>
+  <si>
+    <t>Kollam</t>
+  </si>
+  <si>
+    <t>Munnar</t>
+  </si>
+  <si>
+    <t>Varkala</t>
+  </si>
+  <si>
+    <t>Thekkady</t>
+  </si>
+  <si>
+    <t>Panaji</t>
+  </si>
+  <si>
+    <t>Margao</t>
+  </si>
+  <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
+    <t>Ponda</t>
+  </si>
+  <si>
+    <t>Agonda</t>
+  </si>
+  <si>
+    <t>Arambol</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Leipzig</t>
+  </si>
+  <si>
+    <t>Bamberg</t>
+  </si>
+  <si>
+    <t>Neuschwanstein Castle</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +439,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -308,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -316,6 +477,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -651,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B62C313-1822-48E8-B6A5-6F1F9663415B}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,6 +1216,356 @@
       </c>
       <c r="K11" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>98076534228</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>98076534229</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>98076534230</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>98076534231</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>98076534232</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>98076534233</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>98076534234</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>98076534235</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>98076534236</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>98076534237</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1079,6 +1591,26 @@
     <hyperlink ref="A9" r:id="rId18" xr:uid="{5CEBA5C8-4C63-49CF-8DB9-5CD160FC9B71}"/>
     <hyperlink ref="A10" r:id="rId19" xr:uid="{D7D6BC47-9AB7-4ED7-A0A8-00A7275AF228}"/>
     <hyperlink ref="A11" r:id="rId20" xr:uid="{1E789E4C-1F3B-46D5-8FBF-9EE7C5E5FCF0}"/>
+    <hyperlink ref="B12" r:id="rId21" xr:uid="{28761D0A-7CD5-4A8A-AA8A-931D729B0A2B}"/>
+    <hyperlink ref="B13" r:id="rId22" xr:uid="{B7517CA6-4074-4311-9C48-71DDD2FDBBFE}"/>
+    <hyperlink ref="B14" r:id="rId23" xr:uid="{9AEE4D73-35BE-4DC4-B0C4-F2B7EC780AC1}"/>
+    <hyperlink ref="B15" r:id="rId24" xr:uid="{519B153D-FE0A-489A-9C3D-CB7420ED18CF}"/>
+    <hyperlink ref="B16" r:id="rId25" xr:uid="{7A5CF230-44A0-49AB-993C-10778BAF0CE1}"/>
+    <hyperlink ref="B17" r:id="rId26" xr:uid="{99952153-810B-4B52-A81C-474E4DF947A8}"/>
+    <hyperlink ref="B18" r:id="rId27" xr:uid="{996CFAFC-EA4D-4743-BE45-9F298F8BC9E8}"/>
+    <hyperlink ref="B19" r:id="rId28" xr:uid="{4752E5A4-3825-4615-B658-2A1D874E38FB}"/>
+    <hyperlink ref="B20" r:id="rId29" xr:uid="{328B913E-D4B5-4B1D-87AC-5E34E5FA8F29}"/>
+    <hyperlink ref="B21" r:id="rId30" xr:uid="{9EB814C4-1FF6-4501-8688-3FE042275F29}"/>
+    <hyperlink ref="A12" r:id="rId31" xr:uid="{9ACFCE7F-B560-4D00-8C05-10246568D4E0}"/>
+    <hyperlink ref="A13" r:id="rId32" xr:uid="{E0007082-0A85-466D-AEFC-3C2416787DEA}"/>
+    <hyperlink ref="A14" r:id="rId33" xr:uid="{63220B80-480E-4526-94FC-72A40366C305}"/>
+    <hyperlink ref="A15" r:id="rId34" xr:uid="{56ADDB86-3C69-4A7A-A567-4C980E2F995E}"/>
+    <hyperlink ref="A16" r:id="rId35" xr:uid="{DC6C68D8-E71B-4878-A0C2-518255DBD80E}"/>
+    <hyperlink ref="A17" r:id="rId36" xr:uid="{8262878C-C971-4384-A461-8E487D7D444D}"/>
+    <hyperlink ref="A18" r:id="rId37" xr:uid="{62C15356-1288-4B78-92E7-3D51F1D89865}"/>
+    <hyperlink ref="A19" r:id="rId38" xr:uid="{2DFEF364-CD83-46B9-BB2A-1081C7E75E15}"/>
+    <hyperlink ref="A20" r:id="rId39" xr:uid="{3A889CFE-A164-4632-BF81-C0F77DA2D4E0}"/>
+    <hyperlink ref="A21" r:id="rId40" xr:uid="{F6F52CFA-38C4-4648-A0E1-205CD20ADAC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1086,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107EA393-FD9F-46E8-BF36-FFB845826B0B}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1486,7 +2018,323 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>98076534228</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>98076534229</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>98076534230</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>98076534231</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>98076534232</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>98076534233</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>98076534234</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>98076534235</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>98076534236</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{5B3222E2-2601-4357-912C-31656371D153}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{4724F195-1D51-4D3D-8B1F-69A9BE93A8AE}"/>
@@ -1508,6 +2356,24 @@
     <hyperlink ref="A9" r:id="rId18" xr:uid="{614EB237-04A5-418E-A52E-D3DB51408591}"/>
     <hyperlink ref="A10" r:id="rId19" xr:uid="{EE6EDA20-95AE-4C06-853A-E1D85EDEF346}"/>
     <hyperlink ref="A11" r:id="rId20" xr:uid="{BA49F637-AAB8-49EB-8009-386C6E17366B}"/>
+    <hyperlink ref="B12" r:id="rId21" xr:uid="{97F090AB-C3B6-45A7-BEC6-F7FC9526046F}"/>
+    <hyperlink ref="B13" r:id="rId22" xr:uid="{0244F3AE-7E00-464E-805B-1134285A74A9}"/>
+    <hyperlink ref="B14" r:id="rId23" xr:uid="{229CD7D9-F641-4DA6-BB7A-3C5E27C986A2}"/>
+    <hyperlink ref="B15" r:id="rId24" xr:uid="{980C4071-37B7-4C00-A924-FCBAD2E29840}"/>
+    <hyperlink ref="B16" r:id="rId25" xr:uid="{907AE248-A2BB-4664-9632-2991D4351D1C}"/>
+    <hyperlink ref="B17" r:id="rId26" xr:uid="{BDAB9812-53AD-4390-8880-9C3D911D86BB}"/>
+    <hyperlink ref="B18" r:id="rId27" xr:uid="{26C0F9E4-673E-43BE-A0AA-78A0B32F3A4D}"/>
+    <hyperlink ref="B19" r:id="rId28" xr:uid="{E41D67D3-2655-4C58-BB43-AD0786D24DFA}"/>
+    <hyperlink ref="B20" r:id="rId29" xr:uid="{4AAAA599-F8D1-4CDB-94CF-9C551626181F}"/>
+    <hyperlink ref="A12" r:id="rId30" xr:uid="{8B34C135-AD5B-4883-9272-4BE7F60394C6}"/>
+    <hyperlink ref="A13" r:id="rId31" xr:uid="{62F6DE73-09CA-4D28-8644-BBC33A27C2BB}"/>
+    <hyperlink ref="A14" r:id="rId32" xr:uid="{032A3947-CFB1-4E0E-B1F2-C9B20A23FAB2}"/>
+    <hyperlink ref="A15" r:id="rId33" xr:uid="{71F9FC43-A3CF-4D98-90DA-A8C8920DA8F0}"/>
+    <hyperlink ref="A16" r:id="rId34" xr:uid="{CFE0125A-45FB-42ED-BF7C-C07B11EA93DC}"/>
+    <hyperlink ref="A17" r:id="rId35" xr:uid="{B3408BD5-C068-4E9D-B14B-C2B1F71027CD}"/>
+    <hyperlink ref="A18" r:id="rId36" xr:uid="{6551ABA1-E63A-4E91-856F-EDB4255FFEDF}"/>
+    <hyperlink ref="A19" r:id="rId37" xr:uid="{018D37A3-B1F1-4391-BB89-BF7AF4CB3366}"/>
+    <hyperlink ref="A20" r:id="rId38" xr:uid="{F4A74F9F-976E-464B-9BD0-131229538856}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1515,14 +2381,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009413E9-AF1B-47F9-952B-FEA1E76F9F4B}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
     <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1947,7 +2815,388 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>98076534228</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>98076534229</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>98076534230</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>98076534231</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>98076534232</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>98076534233</v>
+      </c>
+      <c r="K17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>98076534234</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>98076534235</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>98076534236</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>98076534237</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{9C35B22C-143E-4DD4-A09D-D67454017077}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{EA83F41D-ADE5-4268-90E4-49E644BA6185}"/>
@@ -1969,21 +3218,44 @@
     <hyperlink ref="A9" r:id="rId18" xr:uid="{D18EDE35-B235-4A16-891B-4C2D9361FDE5}"/>
     <hyperlink ref="A10" r:id="rId19" xr:uid="{8A7B28D2-125C-4F3B-8280-1C22AF3BD230}"/>
     <hyperlink ref="A11" r:id="rId20" xr:uid="{FD11948E-E6E9-4FEE-8562-6FB4B8679C63}"/>
+    <hyperlink ref="B12" r:id="rId21" xr:uid="{180F845E-66AF-405C-8B09-20B3AA215102}"/>
+    <hyperlink ref="B13" r:id="rId22" xr:uid="{7703CBA8-1FD8-49C5-B696-6AF03A47D18B}"/>
+    <hyperlink ref="B14" r:id="rId23" xr:uid="{FB8C7A2C-9177-40B3-8020-AFADE5BD30BF}"/>
+    <hyperlink ref="B15" r:id="rId24" xr:uid="{B3DD8FB7-D456-40EF-939F-D9E340841671}"/>
+    <hyperlink ref="B16" r:id="rId25" xr:uid="{BDB51E2E-0075-4571-A412-5BB27A9E3ED8}"/>
+    <hyperlink ref="B17" r:id="rId26" xr:uid="{B25347B1-25DB-4BE6-97CB-E9EF6A351CDE}"/>
+    <hyperlink ref="B18" r:id="rId27" xr:uid="{5AF3DE92-ABC8-42B4-96EF-702F64EEBA6D}"/>
+    <hyperlink ref="B19" r:id="rId28" xr:uid="{8FC88840-BEAE-4669-AF4D-49D599059A45}"/>
+    <hyperlink ref="B20" r:id="rId29" xr:uid="{94A60DEB-3BFE-450C-BBB6-F652BD761CD5}"/>
+    <hyperlink ref="B21" r:id="rId30" xr:uid="{7866B02A-CE5E-47BF-8F55-BE663D2A2E6F}"/>
+    <hyperlink ref="A12" r:id="rId31" xr:uid="{AB86974D-4552-4DCA-8277-390863E2B581}"/>
+    <hyperlink ref="A13" r:id="rId32" xr:uid="{B2A31258-69F4-4867-B7DC-6724714B55E9}"/>
+    <hyperlink ref="A14" r:id="rId33" xr:uid="{D23D44AC-E397-456E-8FAB-FA7901499DD9}"/>
+    <hyperlink ref="A15" r:id="rId34" xr:uid="{90C56538-48FC-4CE4-89B1-C60E12C65857}"/>
+    <hyperlink ref="A16" r:id="rId35" xr:uid="{2360846B-7E1E-460F-8C4C-32949F56DE49}"/>
+    <hyperlink ref="A17" r:id="rId36" xr:uid="{4A90CC72-50EB-4F15-B4B9-0CE8A876F3FA}"/>
+    <hyperlink ref="A18" r:id="rId37" xr:uid="{8BC0D37F-6E20-4479-A54B-6036994937EF}"/>
+    <hyperlink ref="A19" r:id="rId38" xr:uid="{7332F005-09AD-49D4-B0D8-B3A9212846BE}"/>
+    <hyperlink ref="A20" r:id="rId39" xr:uid="{91545F25-91A6-4C9C-A5E9-12B7B6FC4C02}"/>
+    <hyperlink ref="A21" r:id="rId40" xr:uid="{2FD2ECB4-A171-431D-9CE5-2D379C6EC9F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A08649B-5A41-48B6-9B83-4F522E9D48A6}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
     <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2375,7 +3647,358 @@
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>98076534228</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>98076534229</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>98076534230</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>98076534231</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>98076534232</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>98076534233</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>98076534234</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>98076534235</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>98076534236</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>98076534237</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F488FD50-169F-4BC2-B868-6855565AAA7D}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{49784AF7-6B97-4DFA-81D4-D1A83717691D}"/>
@@ -2397,6 +4020,26 @@
     <hyperlink ref="A9" r:id="rId18" xr:uid="{8AC66195-1A4B-4E7B-8AE0-D5FC4774C3F5}"/>
     <hyperlink ref="A10" r:id="rId19" xr:uid="{47E981B0-08CA-4C31-BA71-F23239C906D4}"/>
     <hyperlink ref="A11" r:id="rId20" xr:uid="{6F5FA606-F4B8-4F12-A3E3-CB7E964237D1}"/>
+    <hyperlink ref="B12" r:id="rId21" xr:uid="{B1F705D1-AA49-4A75-A071-19D8A53AFB5F}"/>
+    <hyperlink ref="B13" r:id="rId22" xr:uid="{80B4E536-EE64-4729-B45F-EA1E38DAE836}"/>
+    <hyperlink ref="B14" r:id="rId23" xr:uid="{481E2DEC-0225-4CDA-88AB-E6BDE6BEBEC9}"/>
+    <hyperlink ref="B15" r:id="rId24" xr:uid="{8FFA7E98-0ABB-4A43-BC67-615ECADF4E71}"/>
+    <hyperlink ref="B16" r:id="rId25" xr:uid="{B64B3ED6-CBDF-479E-9BE0-AE660EB1C1D2}"/>
+    <hyperlink ref="B17" r:id="rId26" xr:uid="{66AB5D73-0431-43EC-8317-ADBD882B0BA9}"/>
+    <hyperlink ref="B18" r:id="rId27" xr:uid="{AD0D9BDD-6317-48D7-80F5-7E91B7696599}"/>
+    <hyperlink ref="B19" r:id="rId28" xr:uid="{6497477F-91C8-41EF-8BB1-47EEF9034FAF}"/>
+    <hyperlink ref="B20" r:id="rId29" xr:uid="{F78CB3B7-C66A-4CDF-889A-EB4948160081}"/>
+    <hyperlink ref="B21" r:id="rId30" xr:uid="{381C933E-1F0C-475D-A8C2-5D80B790043D}"/>
+    <hyperlink ref="A12" r:id="rId31" xr:uid="{D5868527-5ABC-463A-AC93-0FEA126E5183}"/>
+    <hyperlink ref="A13" r:id="rId32" xr:uid="{72A5BB1F-B6EA-45A8-9A53-DB651924BEB0}"/>
+    <hyperlink ref="A14" r:id="rId33" xr:uid="{D6A8CEB8-3661-46E9-B6E7-E71E8523A731}"/>
+    <hyperlink ref="A15" r:id="rId34" xr:uid="{85A13FC7-766F-40F3-8AB8-B8C92AD7A3EF}"/>
+    <hyperlink ref="A16" r:id="rId35" xr:uid="{CF37459A-C203-4C82-9242-32A965F615E5}"/>
+    <hyperlink ref="A17" r:id="rId36" xr:uid="{28303C78-BC49-4D36-848E-9A8175B30D38}"/>
+    <hyperlink ref="A18" r:id="rId37" xr:uid="{7215F525-C498-40B9-A386-C274CBB6CC0D}"/>
+    <hyperlink ref="A19" r:id="rId38" xr:uid="{EB0DA1F7-9AAF-4260-8E9C-10ECECC78416}"/>
+    <hyperlink ref="A20" r:id="rId39" xr:uid="{628616DC-F9B8-421D-889A-E1BBAC5E646B}"/>
+    <hyperlink ref="A21" r:id="rId40" xr:uid="{5655B6FB-A621-4ABD-8585-70FCCCEB943E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testdata/HotelsScripts_Skytravelers.xlsx
+++ b/src/test/resources/testdata/HotelsScripts_Skytravelers.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7842B037-10B0-458D-8E06-3F047FC1BA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EF02C4-46EE-41B0-9CA0-88D8676FB5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{512D99D7-B637-4054-871A-E0DB86511A8A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="8" xr2:uid="{512D99D7-B637-4054-871A-E0DB86511A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="TCHO_1" sheetId="2" r:id="rId1"/>
     <sheet name="TCHO_2" sheetId="3" r:id="rId2"/>
     <sheet name="TCHO_3" sheetId="4" r:id="rId3"/>
     <sheet name="TCHO_4" sheetId="5" r:id="rId4"/>
+    <sheet name="TCND_1" sheetId="6" r:id="rId5"/>
+    <sheet name="TCNDBU_1" sheetId="7" r:id="rId6"/>
+    <sheet name="TCNDTR_1" sheetId="8" r:id="rId7"/>
+    <sheet name="TCNDTR_2" sheetId="9" r:id="rId8"/>
+    <sheet name="TCNDTR_3" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="221">
   <si>
     <t>TestRun</t>
   </si>
@@ -399,6 +404,309 @@
   </si>
   <si>
     <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>testtraveller907@gmail.com</t>
+  </si>
+  <si>
+    <t>https://tgdev.tripgain.com/</t>
+  </si>
+  <si>
+    <t>Doordie@100</t>
+  </si>
+  <si>
+    <t>kengeri</t>
+  </si>
+  <si>
+    <t>Doordie@101</t>
+  </si>
+  <si>
+    <t>Doordie@102</t>
+  </si>
+  <si>
+    <t>Doordie@103</t>
+  </si>
+  <si>
+    <t>Doordie@104</t>
+  </si>
+  <si>
+    <t>Doordie@105</t>
+  </si>
+  <si>
+    <t>Doordie@106</t>
+  </si>
+  <si>
+    <t>Doordie@107</t>
+  </si>
+  <si>
+    <t>Doordie@108</t>
+  </si>
+  <si>
+    <t>Doordie@109</t>
+  </si>
+  <si>
+    <t>Doordie@110</t>
+  </si>
+  <si>
+    <t>Doordie@111</t>
+  </si>
+  <si>
+    <t>Doordie@112</t>
+  </si>
+  <si>
+    <t>Doordie@113</t>
+  </si>
+  <si>
+    <t>Doordie@114</t>
+  </si>
+  <si>
+    <t>Doordie@115</t>
+  </si>
+  <si>
+    <t>Doordie@116</t>
+  </si>
+  <si>
+    <t>Doordie@117</t>
+  </si>
+  <si>
+    <t>Doordie@118</t>
+  </si>
+  <si>
+    <t>Doordie@119</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>pune</t>
+  </si>
+  <si>
+    <t>Dallas, TX, USA</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>sydney</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>paris</t>
+  </si>
+  <si>
+    <t>san Francisco</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>HotelIndex</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>vijayawada</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>jaipur</t>
+  </si>
+  <si>
+    <t>surat</t>
+  </si>
+  <si>
+    <t>kochi</t>
+  </si>
+  <si>
+    <t>Trivandrum</t>
+  </si>
+  <si>
+    <t>Durgapur</t>
+  </si>
+  <si>
+    <t>bhopal</t>
+  </si>
+  <si>
+    <t>indore</t>
+  </si>
+  <si>
+    <t>lucknow</t>
+  </si>
+  <si>
+    <t>kanpur</t>
+  </si>
+  <si>
+    <t>nagpur</t>
+  </si>
+  <si>
+    <t>Amravati</t>
+  </si>
+  <si>
+    <t>Mangalore</t>
+  </si>
+  <si>
+    <t>mysore</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>madurai</t>
+  </si>
+  <si>
+    <t>Tirunelveli</t>
+  </si>
+  <si>
+    <t>patna</t>
+  </si>
+  <si>
+    <t>gaya</t>
+  </si>
+  <si>
+    <t>Visakhapatnam</t>
+  </si>
+  <si>
+    <t>nashik</t>
+  </si>
+  <si>
+    <t>Aurangabad</t>
+  </si>
+  <si>
+    <t>bapatla</t>
+  </si>
+  <si>
+    <t>chirala</t>
+  </si>
+  <si>
+    <t>agra</t>
+  </si>
+  <si>
+    <t>tirupathi</t>
+  </si>
+  <si>
+    <t>guntur</t>
+  </si>
+  <si>
+    <t>TripName</t>
+  </si>
+  <si>
+    <t>AutoStart1</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Auto_Buses</t>
+  </si>
+  <si>
+    <t>BusOrigin</t>
+  </si>
+  <si>
+    <t>BusDestination</t>
+  </si>
+  <si>
+    <t>mangalore</t>
+  </si>
+  <si>
+    <t>thailand</t>
+  </si>
+  <si>
+    <t>bangkok</t>
+  </si>
+  <si>
+    <t>new york</t>
+  </si>
+  <si>
+    <t>chicago</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels1</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels2</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels3</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels4</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels5</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels6</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels7</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels8</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels9</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels10</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels11</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels12</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels13</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels14</t>
+  </si>
+  <si>
+    <t>Auto_Buses_Hotels15</t>
+  </si>
+  <si>
+    <t>ongole</t>
+  </si>
+  <si>
+    <t>Pondicherry</t>
+  </si>
+  <si>
+    <t>Chikmagalur</t>
+  </si>
+  <si>
+    <t>Whitefield</t>
+  </si>
+  <si>
+    <t>Shivajinagar</t>
+  </si>
+  <si>
+    <t>hebbal</t>
+  </si>
+  <si>
+    <t>HotelOrigin</t>
+  </si>
+  <si>
+    <t>rajarajeswari nagar</t>
   </si>
 </sst>
 </file>
@@ -815,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B62C313-1822-48E8-B6A5-6F1F9663415B}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -937,6 +1245,9 @@
       <c r="K3" t="s">
         <v>25</v>
       </c>
+      <c r="L3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -972,6 +1283,9 @@
       <c r="K4" t="s">
         <v>29</v>
       </c>
+      <c r="L4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1007,6 +1321,9 @@
       <c r="K5" t="s">
         <v>46</v>
       </c>
+      <c r="L5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -1077,6 +1394,9 @@
       <c r="K7" t="s">
         <v>25</v>
       </c>
+      <c r="L7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -1112,6 +1432,9 @@
       <c r="K8" t="s">
         <v>29</v>
       </c>
+      <c r="L8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1147,6 +1470,9 @@
       <c r="K9" t="s">
         <v>46</v>
       </c>
+      <c r="L9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -1182,6 +1508,9 @@
       <c r="K10" t="s">
         <v>20</v>
       </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1217,6 +1546,9 @@
       <c r="K11" t="s">
         <v>25</v>
       </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1252,6 +1584,9 @@
       <c r="K12" t="s">
         <v>20</v>
       </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -1287,6 +1622,9 @@
       <c r="K13" t="s">
         <v>29</v>
       </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -1322,6 +1660,9 @@
       <c r="K14" t="s">
         <v>25</v>
       </c>
+      <c r="L14" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1357,6 +1698,9 @@
       <c r="K15" t="s">
         <v>29</v>
       </c>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -1392,8 +1736,11 @@
       <c r="K16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1427,8 +1774,11 @@
       <c r="K17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1462,8 +1812,11 @@
       <c r="K18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1497,8 +1850,11 @@
       <c r="K19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1532,8 +1888,11 @@
       <c r="K20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -1566,6 +1925,9 @@
       </c>
       <c r="K21" t="s">
         <v>29</v>
+      </c>
+      <c r="L21" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1621,13 +1983,14 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="16.26953125" customWidth="1"/>
     <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -1702,6 +2065,9 @@
       <c r="K2" t="s">
         <v>25</v>
       </c>
+      <c r="L2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1772,6 +2138,9 @@
       <c r="K4" t="s">
         <v>29</v>
       </c>
+      <c r="L4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1807,6 +2176,9 @@
       <c r="K5" t="s">
         <v>46</v>
       </c>
+      <c r="L5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -1842,6 +2214,9 @@
       <c r="K6" t="s">
         <v>20</v>
       </c>
+      <c r="L6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1877,6 +2252,9 @@
       <c r="K7" t="s">
         <v>25</v>
       </c>
+      <c r="L7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -1912,6 +2290,9 @@
       <c r="K8" t="s">
         <v>29</v>
       </c>
+      <c r="L8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1947,6 +2328,9 @@
       <c r="K9" t="s">
         <v>46</v>
       </c>
+      <c r="L9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -1982,6 +2366,9 @@
       <c r="K10" t="s">
         <v>20</v>
       </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -2017,6 +2404,9 @@
       <c r="K11" t="s">
         <v>25</v>
       </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -2052,6 +2442,9 @@
       <c r="K12" t="s">
         <v>29</v>
       </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -2087,6 +2480,9 @@
       <c r="K13" t="s">
         <v>46</v>
       </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -2122,6 +2518,9 @@
       <c r="K14" t="s">
         <v>20</v>
       </c>
+      <c r="L14" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -2192,8 +2591,11 @@
       <c r="K16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -2227,8 +2629,11 @@
       <c r="K17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2262,8 +2667,11 @@
       <c r="K18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2297,8 +2705,11 @@
       <c r="K19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -2331,6 +2742,9 @@
       </c>
       <c r="K20" t="s">
         <v>46</v>
+      </c>
+      <c r="L20" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2798,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2472,6 +2886,9 @@
       <c r="L2">
         <v>4</v>
       </c>
+      <c r="M2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -2510,6 +2927,9 @@
       <c r="L3">
         <v>1</v>
       </c>
+      <c r="M3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -2548,6 +2968,9 @@
       <c r="L4">
         <v>2</v>
       </c>
+      <c r="M4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -2624,6 +3047,9 @@
       <c r="L6">
         <v>4</v>
       </c>
+      <c r="M6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -2662,6 +3088,9 @@
       <c r="L7">
         <v>3</v>
       </c>
+      <c r="M7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -2700,6 +3129,9 @@
       <c r="L8">
         <v>1</v>
       </c>
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -2738,6 +3170,9 @@
       <c r="L9">
         <v>2</v>
       </c>
+      <c r="M9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -2776,6 +3211,9 @@
       <c r="L10">
         <v>4</v>
       </c>
+      <c r="M10" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -2814,6 +3252,9 @@
       <c r="L11">
         <v>3</v>
       </c>
+      <c r="M11" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -2852,6 +3293,9 @@
       <c r="L12">
         <v>2</v>
       </c>
+      <c r="M12" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -2890,6 +3334,9 @@
       <c r="L13">
         <v>3</v>
       </c>
+      <c r="M13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -2928,6 +3375,9 @@
       <c r="L14">
         <v>4</v>
       </c>
+      <c r="M14" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -2966,6 +3416,9 @@
       <c r="L15">
         <v>2</v>
       </c>
+      <c r="M15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -3004,8 +3457,11 @@
       <c r="L16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3042,8 +3498,11 @@
       <c r="L17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -3080,8 +3539,11 @@
       <c r="L18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -3118,8 +3580,11 @@
       <c r="L19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -3157,7 +3622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -3193,6 +3658,9 @@
       </c>
       <c r="L21">
         <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3248,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A08649B-5A41-48B6-9B83-4F522E9D48A6}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3257,6 +3725,7 @@
     <col min="2" max="2" width="20.7265625" customWidth="1"/>
     <col min="3" max="3" width="12.6328125" customWidth="1"/>
     <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -3331,6 +3800,9 @@
       <c r="K2" t="s">
         <v>29</v>
       </c>
+      <c r="L2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -3366,6 +3838,9 @@
       <c r="K3" t="s">
         <v>25</v>
       </c>
+      <c r="L3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3401,6 +3876,9 @@
       <c r="K4" t="s">
         <v>29</v>
       </c>
+      <c r="L4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -3436,6 +3914,9 @@
       <c r="K5" t="s">
         <v>46</v>
       </c>
+      <c r="L5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -3471,6 +3952,9 @@
       <c r="K6" t="s">
         <v>20</v>
       </c>
+      <c r="L6" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -3506,6 +3990,9 @@
       <c r="K7" t="s">
         <v>25</v>
       </c>
+      <c r="L7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -3541,6 +4028,9 @@
       <c r="K8" t="s">
         <v>29</v>
       </c>
+      <c r="L8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -3576,6 +4066,9 @@
       <c r="K9" t="s">
         <v>46</v>
       </c>
+      <c r="L9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -3611,6 +4104,9 @@
       <c r="K10" t="s">
         <v>20</v>
       </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -3646,6 +4142,9 @@
       <c r="K11" t="s">
         <v>25</v>
       </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -3681,6 +4180,9 @@
       <c r="K12" t="s">
         <v>29</v>
       </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -3716,6 +4218,9 @@
       <c r="K13" t="s">
         <v>46</v>
       </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -3786,6 +4291,9 @@
       <c r="K15" t="s">
         <v>25</v>
       </c>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -3821,8 +4329,11 @@
       <c r="K16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3856,8 +4367,11 @@
       <c r="K17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -3891,8 +4405,11 @@
       <c r="K18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -3926,8 +4443,11 @@
       <c r="K19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -3961,8 +4481,11 @@
       <c r="K20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -3995,6 +4518,9 @@
       </c>
       <c r="K21" t="s">
         <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4043,4 +4569,1411 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9BB05B-65AF-4EA0-B284-D37B978614F7}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="43.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{421CF4A1-C060-4815-9917-6B79275BB28C}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{99712185-1D17-4F41-8CA1-CC85B20E7905}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{35AB73B7-07C9-442E-ADA6-F5F9EA2123B3}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{93BB6483-3FE5-42F3-ABF1-7D012216F2E0}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{A72E097C-3615-48D5-AE1B-AE2546DF7D70}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{106FE48F-75F5-410F-B37F-29F039DA3415}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{8B59CBCC-B34E-425C-93A2-34A1E240AD50}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{E8842F99-A9C1-42D2-A816-BD2F4F1C676A}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{25766F75-5F8F-40FF-84F2-0634F77BC15C}"/>
+    <hyperlink ref="B9" r:id="rId10" xr:uid="{0FA405BE-A79C-4D33-8811-0D47A65C885E}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{C68BA698-50E2-4DD6-BB22-F971A3B3E023}"/>
+    <hyperlink ref="B11" r:id="rId12" xr:uid="{32891291-5A57-4334-8B74-D060FB6EAD81}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{F71B49FB-CB1A-4CD0-BD55-D46142E15DE1}"/>
+    <hyperlink ref="B13" r:id="rId14" xr:uid="{53AE0A71-5A85-4583-ABAD-21E05CA4071C}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{FCC406FD-2CDB-4664-8016-8DE482D3EDD5}"/>
+    <hyperlink ref="B15" r:id="rId16" xr:uid="{B18383EF-F842-4450-9520-735DB0167D95}"/>
+    <hyperlink ref="B16" r:id="rId17" xr:uid="{8AF918A9-301A-4509-8C7F-38D515A921AD}"/>
+    <hyperlink ref="B17" r:id="rId18" xr:uid="{69605BF0-2D65-47D8-81CF-33ABEAFDFB17}"/>
+    <hyperlink ref="B18" r:id="rId19" xr:uid="{58366A44-2980-42D4-A87C-0A23AD30C073}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{DB49D9D5-2E21-4622-A927-F1FFABDB4FCD}"/>
+    <hyperlink ref="A3" r:id="rId21" xr:uid="{E9414D7A-2EBE-4F42-B484-E4A015640296}"/>
+    <hyperlink ref="A4" r:id="rId22" xr:uid="{DC83B4AB-379E-4F5B-A3CB-FD784D550137}"/>
+    <hyperlink ref="A5" r:id="rId23" xr:uid="{9AE1C327-2E2B-4ED0-A34D-E911F6F67933}"/>
+    <hyperlink ref="A6" r:id="rId24" xr:uid="{2A7F8886-ECDA-4AA7-8BD6-1BF597E467CD}"/>
+    <hyperlink ref="A7" r:id="rId25" xr:uid="{50D5CB16-EF6B-4654-8EFF-B5BA613F9C39}"/>
+    <hyperlink ref="A8" r:id="rId26" xr:uid="{0064AD75-5498-4821-9877-533ABE97CC94}"/>
+    <hyperlink ref="A9" r:id="rId27" xr:uid="{7FE5597F-C3E0-438D-B37D-852A45977874}"/>
+    <hyperlink ref="A10" r:id="rId28" xr:uid="{429E4E09-D4E5-43E9-BD5E-0FB2B916D46B}"/>
+    <hyperlink ref="A11" r:id="rId29" xr:uid="{A2B01F78-79FD-4C00-B3A0-E53FAA93D251}"/>
+    <hyperlink ref="A12" r:id="rId30" xr:uid="{717C3E1F-F100-4B71-B387-D4E9B6978815}"/>
+    <hyperlink ref="A13" r:id="rId31" xr:uid="{07815760-B9F7-419B-AAA5-5C1D1EA218FE}"/>
+    <hyperlink ref="A14" r:id="rId32" xr:uid="{B0BC493E-8792-4FE5-B71C-15FDDA591563}"/>
+    <hyperlink ref="A15" r:id="rId33" xr:uid="{8CFF825D-FD4F-49DE-B049-8586E2CEDBB6}"/>
+    <hyperlink ref="A16" r:id="rId34" xr:uid="{DE8AC35D-B9BE-450E-9409-0D6293216B43}"/>
+    <hyperlink ref="A17" r:id="rId35" xr:uid="{A1592D7B-424E-4222-B956-9948CF6CB75F}"/>
+    <hyperlink ref="A18" r:id="rId36" xr:uid="{81632CFA-81E0-404D-B081-65C043DBA07A}"/>
+    <hyperlink ref="A19" r:id="rId37" xr:uid="{44D73D2D-0B2A-4E93-82FE-0E108DFA2B9A}"/>
+    <hyperlink ref="C3" r:id="rId38" display="Doordie@100" xr:uid="{A112D8C5-632D-4163-85AF-D74CC3E7061C}"/>
+    <hyperlink ref="C4" r:id="rId39" display="Doordie@100" xr:uid="{262BEE6C-82F6-4561-8631-C95CD3EA2254}"/>
+    <hyperlink ref="C5" r:id="rId40" display="Doordie@100" xr:uid="{7C60ABA3-5B9F-49B6-ADF1-B3C730E753AD}"/>
+    <hyperlink ref="C6" r:id="rId41" display="Doordie@100" xr:uid="{5E8C98B0-15CF-4107-B20B-59C707678720}"/>
+    <hyperlink ref="C7" r:id="rId42" display="Doordie@100" xr:uid="{E12CF9A3-2766-4AE4-A8EC-AAB807D734C5}"/>
+    <hyperlink ref="C8" r:id="rId43" display="Doordie@100" xr:uid="{086E5345-8096-4F2E-8484-2CA63A6338B5}"/>
+    <hyperlink ref="C9" r:id="rId44" display="Doordie@100" xr:uid="{8FF4D999-170A-49C8-A95D-038EAFE9807D}"/>
+    <hyperlink ref="C10" r:id="rId45" display="Doordie@100" xr:uid="{36987A20-7E5E-4D7A-B8B4-5F0F72540D10}"/>
+    <hyperlink ref="C11" r:id="rId46" display="Doordie@100" xr:uid="{F29E61B6-090D-4BB0-9C63-66795D5D6404}"/>
+    <hyperlink ref="C12" r:id="rId47" display="Doordie@100" xr:uid="{2763913D-E109-43A3-B959-FCD2F9234438}"/>
+    <hyperlink ref="C13" r:id="rId48" display="Doordie@100" xr:uid="{5AACEC40-7D66-4DC7-944D-1BD8C44C4693}"/>
+    <hyperlink ref="C14" r:id="rId49" display="Doordie@100" xr:uid="{6E4A8AED-36E0-4A11-9D7F-FED15F3683CC}"/>
+    <hyperlink ref="C15" r:id="rId50" display="Doordie@100" xr:uid="{CF75446F-BA0B-4C33-B213-4E1033D0C505}"/>
+    <hyperlink ref="C16" r:id="rId51" display="Doordie@100" xr:uid="{7A1CDF89-EBD0-41C1-A27E-178663425F1D}"/>
+    <hyperlink ref="C17" r:id="rId52" display="Doordie@100" xr:uid="{D67C095E-3233-454C-81B4-7C79E945566E}"/>
+    <hyperlink ref="C18" r:id="rId53" display="Doordie@100" xr:uid="{3C02E397-C7A7-4497-974A-EB4B88830A53}"/>
+    <hyperlink ref="C19" r:id="rId54" display="Doordie@100" xr:uid="{A16BBD27-16CD-454E-B431-67BBA0106389}"/>
+    <hyperlink ref="B20" r:id="rId55" xr:uid="{5E51053F-C15A-4D73-8AA3-394EE53F0048}"/>
+    <hyperlink ref="A20" r:id="rId56" xr:uid="{DB373907-56EE-4073-A331-0139B2D2E8D7}"/>
+    <hyperlink ref="C20" r:id="rId57" display="Doordie@100" xr:uid="{894BD5D1-E222-4454-BF47-F8B6C7CF3822}"/>
+    <hyperlink ref="B21" r:id="rId58" xr:uid="{F329B2B6-6CFA-4FB8-9B1E-9BB823CEEC0E}"/>
+    <hyperlink ref="A21" r:id="rId59" xr:uid="{F9B22ABE-76C2-4ED5-ACB8-2C3213D853F5}"/>
+    <hyperlink ref="C21" r:id="rId60" display="Doordie@100" xr:uid="{7FCFDB99-A1A6-41F3-A2E4-BDF09DADF1EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32C639-9751-46C8-AB5C-5BEC34FB1F52}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4F99C325-BADD-4539-8FF7-DFF9993CC9B2}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{7ABC8269-BEBA-413F-9FFB-2E2F0051B554}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{6CB65E85-93BE-4CDC-8F12-4040CEC19996}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{28A22044-90D0-499A-8746-046B44AEFF3F}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{277BD9FA-6222-4AC3-84E2-A24C2C48DA5A}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{6C604675-9F97-4D10-ABBF-50CABC772C94}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{4CB2E585-F603-439E-AC19-56B81367A4E5}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{B230F806-4E39-45AD-A17E-41E4ECC0D055}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{361652F5-73AA-4CC4-9888-046C5044B9BA}"/>
+    <hyperlink ref="B9" r:id="rId10" xr:uid="{409A400F-C316-4385-813B-4CA57017549D}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{15568EF4-3090-4A22-A607-4CD5A183B976}"/>
+    <hyperlink ref="B11" r:id="rId12" xr:uid="{B1F3CAD1-0126-4585-B3A7-66AB2C59407F}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{E910639B-A1A6-4781-908F-1E8176B15E84}"/>
+    <hyperlink ref="B13" r:id="rId14" xr:uid="{6D9812E2-4B53-4A24-A730-A8E5FDE70639}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{74149AD4-F969-478C-896D-AEBC6858CA9A}"/>
+    <hyperlink ref="B15" r:id="rId16" xr:uid="{B2C5CF3F-4946-4ACB-9E39-0A6F78C22A4B}"/>
+    <hyperlink ref="B16" r:id="rId17" xr:uid="{036CEE2D-AF45-42B1-AB48-0949D74CBFAE}"/>
+    <hyperlink ref="B17" r:id="rId18" xr:uid="{062BDD05-579C-4A7B-9602-F1FBF272B345}"/>
+    <hyperlink ref="B18" r:id="rId19" xr:uid="{98B3CFE0-B7BA-42C3-80FE-A2961ACDA81A}"/>
+    <hyperlink ref="B19" r:id="rId20" xr:uid="{CD0ADD6A-A56F-4F6C-AFB9-8B7F11F93DC5}"/>
+    <hyperlink ref="A3" r:id="rId21" xr:uid="{9C1324AB-BF6B-4E59-9D11-26F6CC4F70A7}"/>
+    <hyperlink ref="A4" r:id="rId22" xr:uid="{497721FE-2A87-44F1-A8FF-E46AA030415F}"/>
+    <hyperlink ref="A5" r:id="rId23" xr:uid="{623D0151-AAFF-4895-923A-6ACCAC416534}"/>
+    <hyperlink ref="A6" r:id="rId24" xr:uid="{A708FA40-1D15-4064-B877-F4C245BEFE38}"/>
+    <hyperlink ref="A7" r:id="rId25" xr:uid="{AE800CC3-DD5B-45FC-9ACA-384276C86E20}"/>
+    <hyperlink ref="A8" r:id="rId26" xr:uid="{382B43C3-5FBA-4FA1-92F2-70381A0DFB75}"/>
+    <hyperlink ref="A9" r:id="rId27" xr:uid="{D9139641-735A-4805-B0AF-F42956EFB364}"/>
+    <hyperlink ref="A10" r:id="rId28" xr:uid="{E9E8B172-08FB-48B9-A092-FCB4FE13DB6E}"/>
+    <hyperlink ref="A11" r:id="rId29" xr:uid="{40753906-66B1-4B92-AF47-3D7D4C2CE0D7}"/>
+    <hyperlink ref="A12" r:id="rId30" xr:uid="{7A3D51B6-4198-4B90-A376-2DA3375BD19E}"/>
+    <hyperlink ref="A13" r:id="rId31" xr:uid="{E27D25D3-D2B8-4672-94F2-4CC9BE0AC9A0}"/>
+    <hyperlink ref="A14" r:id="rId32" xr:uid="{B5247CCE-1CB3-42B3-A0E4-5BB1E907D260}"/>
+    <hyperlink ref="A15" r:id="rId33" xr:uid="{724BA3B9-3DDB-4F82-A177-2314A76CA10C}"/>
+    <hyperlink ref="A16" r:id="rId34" xr:uid="{9D3760B7-42D4-4417-8D72-0E9F43BB1AC6}"/>
+    <hyperlink ref="A17" r:id="rId35" xr:uid="{4296078F-1DF6-44C6-8165-64087A02D880}"/>
+    <hyperlink ref="A18" r:id="rId36" xr:uid="{54988E20-0E8D-48E7-ACA3-ADEB736CBDA6}"/>
+    <hyperlink ref="A19" r:id="rId37" xr:uid="{3A765DFB-A714-46EC-9A42-FF1546847688}"/>
+    <hyperlink ref="C3" r:id="rId38" display="Doordie@100" xr:uid="{AEA7299B-8B6C-4A47-B828-EC2CD1E69A2F}"/>
+    <hyperlink ref="C4" r:id="rId39" display="Doordie@100" xr:uid="{2123834E-2AB0-4FD0-A772-6410CB7B9DDC}"/>
+    <hyperlink ref="C5" r:id="rId40" display="Doordie@100" xr:uid="{915C0A94-390C-434B-8F42-6E12AE1A80EA}"/>
+    <hyperlink ref="C6" r:id="rId41" display="Doordie@100" xr:uid="{CB5B6BEE-3C25-45A1-9C8F-259A3D8DF3DD}"/>
+    <hyperlink ref="C7" r:id="rId42" display="Doordie@100" xr:uid="{EB92853D-1B9A-4CC4-A9AF-8BD0CF635D93}"/>
+    <hyperlink ref="C8" r:id="rId43" display="Doordie@100" xr:uid="{27D02071-2945-432F-A685-A34B38B87FF1}"/>
+    <hyperlink ref="C9" r:id="rId44" display="Doordie@100" xr:uid="{1EC24A2E-1598-497C-B6F8-4DCA908AA5ED}"/>
+    <hyperlink ref="C10" r:id="rId45" display="Doordie@100" xr:uid="{0AE794E9-6E03-46F4-AED0-9C5B42198439}"/>
+    <hyperlink ref="C11" r:id="rId46" display="Doordie@100" xr:uid="{3386A85A-BD1C-4EB3-8A54-6075BB8A7896}"/>
+    <hyperlink ref="C12" r:id="rId47" display="Doordie@100" xr:uid="{0A85EB4E-C79D-44C0-A44D-62C8A115A2C8}"/>
+    <hyperlink ref="C13" r:id="rId48" display="Doordie@100" xr:uid="{4BADA009-DDEA-46A6-8277-F669034CF813}"/>
+    <hyperlink ref="C14" r:id="rId49" display="Doordie@100" xr:uid="{55C4C899-9B25-49B3-A9EA-AEB10110EA05}"/>
+    <hyperlink ref="C15" r:id="rId50" display="Doordie@100" xr:uid="{D6C4D5D9-54E1-4CA0-B62F-717B9F53941F}"/>
+    <hyperlink ref="C16" r:id="rId51" display="Doordie@100" xr:uid="{0D42D67E-2ED6-4047-9699-A71C160124A1}"/>
+    <hyperlink ref="C17" r:id="rId52" display="Doordie@100" xr:uid="{016D6C34-A27E-461E-955A-E8C1B59BC6A3}"/>
+    <hyperlink ref="C18" r:id="rId53" display="Doordie@100" xr:uid="{0912A058-6BC9-4829-BBB0-BB4150EB54FD}"/>
+    <hyperlink ref="C19" r:id="rId54" display="Doordie@100" xr:uid="{0000B1EE-C3DE-4F49-9192-A20721FCA24A}"/>
+    <hyperlink ref="B20" r:id="rId55" xr:uid="{61EE19D2-61C7-4621-89F9-931628FDA0CE}"/>
+    <hyperlink ref="A20" r:id="rId56" xr:uid="{5A193398-5151-422F-AE3D-71AAC9233E3B}"/>
+    <hyperlink ref="C20" r:id="rId57" display="Doordie@100" xr:uid="{AB6997F5-F217-43AC-A562-C1CB83CDF394}"/>
+    <hyperlink ref="B21" r:id="rId58" xr:uid="{9E823B61-1094-4EA3-AB8A-DC61FD51D55A}"/>
+    <hyperlink ref="A21" r:id="rId59" xr:uid="{DFC58A2C-23BA-4B78-A4DF-2CF122095EF1}"/>
+    <hyperlink ref="C21" r:id="rId60" display="Doordie@100" xr:uid="{6454D373-2E82-4E37-92B1-8FB89EB2A214}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CCBB0-59C0-48CB-A87A-0B0C4F1FD065}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BF67F2E5-ACB9-4272-AE60-74BC4C8AE484}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{8E026CDC-0730-4A08-BD6A-9CFBA157B452}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{65D881A0-E022-427D-A2CD-B9A87CDED0BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B601A09D-93F0-4AB8-824B-DB778A997F8A}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6D3AE3D9-E367-4D99-ACCE-913BEA8920F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D33E6F-A6B1-4616-954D-27E1D6F16508}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4D03F68A-C2E4-4D0F-A0D2-08A45B4C5398}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{F7B99411-598A-49BE-934E-C540226F5D84}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{6BF81A2B-86FF-406A-B08E-B8045FAC4EA4}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{1C3EC6FB-407E-4007-95D8-EFDE35B025DE}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{5E880602-A850-4B92-A8F1-4DD8E5245D05}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{3EBEEBCE-9F60-4214-9C2B-528477464C2F}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{CBC96C1F-9C85-4E6E-9AA6-554A8F199DE5}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{F3F9A1E9-E5F1-4001-A6C5-679D9E23EFCD}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{13A8E850-673A-46FF-871E-3785BA88C85D}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{A2F67EE0-32F2-474B-BCFE-1C8B72D9A5B2}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{9D6477F5-E69C-4D79-B776-B469E6CF91F7}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{0210A67F-8C03-4775-BA6C-E86020F05869}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{47C17F50-9964-4ED3-B6D0-C77D4A34FC5A}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{067430A8-550F-4A32-97CC-74BD3CC02A75}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{63128FBD-EEBF-4A51-A57A-7EC073A278D0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/HotelsScripts_Skytravelers.xlsx
+++ b/src/test/resources/testdata/HotelsScripts_Skytravelers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EF02C4-46EE-41B0-9CA0-88D8676FB5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915AFD9C-3AA5-4BB9-9478-36243E05603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="8" xr2:uid="{512D99D7-B637-4054-871A-E0DB86511A8A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="8" xr2:uid="{512D99D7-B637-4054-871A-E0DB86511A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="TCHO_1" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="232">
   <si>
     <t>TestRun</t>
   </si>
@@ -421,63 +421,6 @@
     <t>kengeri</t>
   </si>
   <si>
-    <t>Doordie@101</t>
-  </si>
-  <si>
-    <t>Doordie@102</t>
-  </si>
-  <si>
-    <t>Doordie@103</t>
-  </si>
-  <si>
-    <t>Doordie@104</t>
-  </si>
-  <si>
-    <t>Doordie@105</t>
-  </si>
-  <si>
-    <t>Doordie@106</t>
-  </si>
-  <si>
-    <t>Doordie@107</t>
-  </si>
-  <si>
-    <t>Doordie@108</t>
-  </si>
-  <si>
-    <t>Doordie@109</t>
-  </si>
-  <si>
-    <t>Doordie@110</t>
-  </si>
-  <si>
-    <t>Doordie@111</t>
-  </si>
-  <si>
-    <t>Doordie@112</t>
-  </si>
-  <si>
-    <t>Doordie@113</t>
-  </si>
-  <si>
-    <t>Doordie@114</t>
-  </si>
-  <si>
-    <t>Doordie@115</t>
-  </si>
-  <si>
-    <t>Doordie@116</t>
-  </si>
-  <si>
-    <t>Doordie@117</t>
-  </si>
-  <si>
-    <t>Doordie@118</t>
-  </si>
-  <si>
-    <t>Doordie@119</t>
-  </si>
-  <si>
     <t>hyderabad</t>
   </si>
   <si>
@@ -707,13 +650,103 @@
   </si>
   <si>
     <t>rajarajeswari nagar</t>
+  </si>
+  <si>
+    <t>https://neo.tripgain.com/login</t>
+  </si>
+  <si>
+    <t>testtraveller98@tripgain.com</t>
+  </si>
+  <si>
+    <t>@AM@TGA1$29TN</t>
+  </si>
+  <si>
+    <t>UserName1</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>automation@tga.com</t>
+  </si>
+  <si>
+    <t>SearchBy</t>
+  </si>
+  <si>
+    <t>SearchValue</t>
+  </si>
+  <si>
+    <t>testapprover98@tripgain.com</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>TravellerSearchValue</t>
+  </si>
+  <si>
+    <t>TravellerSearchValue2</t>
+  </si>
+  <si>
+    <t>testfinance98@tripgain.com</t>
+  </si>
+  <si>
+    <t>Status2</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>tirupati</t>
+  </si>
+  <si>
+    <t>Rajkot</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>visakhapatnam</t>
+  </si>
+  <si>
+    <t>ludhiana</t>
+  </si>
+  <si>
+    <t>satara</t>
+  </si>
+  <si>
+    <t>solapur</t>
+  </si>
+  <si>
+    <t>Amritsar</t>
+  </si>
+  <si>
+    <t>varanasi</t>
+  </si>
+  <si>
+    <t>udaipur</t>
+  </si>
+  <si>
+    <t>puri</t>
+  </si>
+  <si>
+    <t>bhuvaneswar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +788,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF667085"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF667085"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -777,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -786,6 +843,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4573,10 +4639,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9BB05B-65AF-4EA0-B284-D37B978614F7}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4584,10 +4650,16 @@
     <col min="1" max="1" width="39.6328125" customWidth="1"/>
     <col min="2" max="2" width="29.81640625" customWidth="1"/>
     <col min="3" max="3" width="20.36328125" customWidth="1"/>
-    <col min="4" max="4" width="43.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="9" max="9" width="28.08984375" customWidth="1"/>
+    <col min="12" max="12" width="27.7265625" customWidth="1"/>
+    <col min="13" max="13" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4601,21 +4673,48 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>122</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>124</v>
@@ -4623,16 +4722,43 @@
       <c r="E2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>122</v>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
@@ -4640,16 +4766,46 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>122</v>
+      <c r="F3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>49</v>
@@ -4657,16 +4813,46 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>122</v>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>47</v>
@@ -4674,33 +4860,93 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>122</v>
+      <c r="F5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>122</v>
+      <c r="F6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>48</v>
@@ -4708,33 +4954,93 @@
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>122</v>
+      <c r="F7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>122</v>
+      <c r="F8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>42</v>
@@ -4742,50 +5048,140 @@
       <c r="E9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>122</v>
+      <c r="F9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>122</v>
+      <c r="F10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>122</v>
+      <c r="F11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>87</v>
@@ -4793,152 +5189,422 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>122</v>
+      <c r="F12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>122</v>
+      <c r="F13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>122</v>
+      <c r="F14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>122</v>
+      <c r="F15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>122</v>
+      <c r="F16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>122</v>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>122</v>
+      <c r="F18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>122</v>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>122</v>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>88</v>
@@ -4946,91 +5612,177 @@
       <c r="E21">
         <v>2</v>
       </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D23" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D24" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D25" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D26" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D27" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D28" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D29" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D30" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D31" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D41" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D43" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{421CF4A1-C060-4815-9917-6B79275BB28C}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{99712185-1D17-4F41-8CA1-CC85B20E7905}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{35AB73B7-07C9-442E-ADA6-F5F9EA2123B3}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{93BB6483-3FE5-42F3-ABF1-7D012216F2E0}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{A72E097C-3615-48D5-AE1B-AE2546DF7D70}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{106FE48F-75F5-410F-B37F-29F039DA3415}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{8B59CBCC-B34E-425C-93A2-34A1E240AD50}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{E8842F99-A9C1-42D2-A816-BD2F4F1C676A}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{25766F75-5F8F-40FF-84F2-0634F77BC15C}"/>
-    <hyperlink ref="B9" r:id="rId10" xr:uid="{0FA405BE-A79C-4D33-8811-0D47A65C885E}"/>
-    <hyperlink ref="B10" r:id="rId11" xr:uid="{C68BA698-50E2-4DD6-BB22-F971A3B3E023}"/>
-    <hyperlink ref="B11" r:id="rId12" xr:uid="{32891291-5A57-4334-8B74-D060FB6EAD81}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{F71B49FB-CB1A-4CD0-BD55-D46142E15DE1}"/>
-    <hyperlink ref="B13" r:id="rId14" xr:uid="{53AE0A71-5A85-4583-ABAD-21E05CA4071C}"/>
-    <hyperlink ref="B14" r:id="rId15" xr:uid="{FCC406FD-2CDB-4664-8016-8DE482D3EDD5}"/>
-    <hyperlink ref="B15" r:id="rId16" xr:uid="{B18383EF-F842-4450-9520-735DB0167D95}"/>
-    <hyperlink ref="B16" r:id="rId17" xr:uid="{8AF918A9-301A-4509-8C7F-38D515A921AD}"/>
-    <hyperlink ref="B17" r:id="rId18" xr:uid="{69605BF0-2D65-47D8-81CF-33ABEAFDFB17}"/>
-    <hyperlink ref="B18" r:id="rId19" xr:uid="{58366A44-2980-42D4-A87C-0A23AD30C073}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{DB49D9D5-2E21-4622-A927-F1FFABDB4FCD}"/>
-    <hyperlink ref="A3" r:id="rId21" xr:uid="{E9414D7A-2EBE-4F42-B484-E4A015640296}"/>
-    <hyperlink ref="A4" r:id="rId22" xr:uid="{DC83B4AB-379E-4F5B-A3CB-FD784D550137}"/>
-    <hyperlink ref="A5" r:id="rId23" xr:uid="{9AE1C327-2E2B-4ED0-A34D-E911F6F67933}"/>
-    <hyperlink ref="A6" r:id="rId24" xr:uid="{2A7F8886-ECDA-4AA7-8BD6-1BF597E467CD}"/>
-    <hyperlink ref="A7" r:id="rId25" xr:uid="{50D5CB16-EF6B-4654-8EFF-B5BA613F9C39}"/>
-    <hyperlink ref="A8" r:id="rId26" xr:uid="{0064AD75-5498-4821-9877-533ABE97CC94}"/>
-    <hyperlink ref="A9" r:id="rId27" xr:uid="{7FE5597F-C3E0-438D-B37D-852A45977874}"/>
-    <hyperlink ref="A10" r:id="rId28" xr:uid="{429E4E09-D4E5-43E9-BD5E-0FB2B916D46B}"/>
-    <hyperlink ref="A11" r:id="rId29" xr:uid="{A2B01F78-79FD-4C00-B3A0-E53FAA93D251}"/>
-    <hyperlink ref="A12" r:id="rId30" xr:uid="{717C3E1F-F100-4B71-B387-D4E9B6978815}"/>
-    <hyperlink ref="A13" r:id="rId31" xr:uid="{07815760-B9F7-419B-AAA5-5C1D1EA218FE}"/>
-    <hyperlink ref="A14" r:id="rId32" xr:uid="{B0BC493E-8792-4FE5-B71C-15FDDA591563}"/>
-    <hyperlink ref="A15" r:id="rId33" xr:uid="{8CFF825D-FD4F-49DE-B049-8586E2CEDBB6}"/>
-    <hyperlink ref="A16" r:id="rId34" xr:uid="{DE8AC35D-B9BE-450E-9409-0D6293216B43}"/>
-    <hyperlink ref="A17" r:id="rId35" xr:uid="{A1592D7B-424E-4222-B956-9948CF6CB75F}"/>
-    <hyperlink ref="A18" r:id="rId36" xr:uid="{81632CFA-81E0-404D-B081-65C043DBA07A}"/>
-    <hyperlink ref="A19" r:id="rId37" xr:uid="{44D73D2D-0B2A-4E93-82FE-0E108DFA2B9A}"/>
-    <hyperlink ref="C3" r:id="rId38" display="Doordie@100" xr:uid="{A112D8C5-632D-4163-85AF-D74CC3E7061C}"/>
-    <hyperlink ref="C4" r:id="rId39" display="Doordie@100" xr:uid="{262BEE6C-82F6-4561-8631-C95CD3EA2254}"/>
-    <hyperlink ref="C5" r:id="rId40" display="Doordie@100" xr:uid="{7C60ABA3-5B9F-49B6-ADF1-B3C730E753AD}"/>
-    <hyperlink ref="C6" r:id="rId41" display="Doordie@100" xr:uid="{5E8C98B0-15CF-4107-B20B-59C707678720}"/>
-    <hyperlink ref="C7" r:id="rId42" display="Doordie@100" xr:uid="{E12CF9A3-2766-4AE4-A8EC-AAB807D734C5}"/>
-    <hyperlink ref="C8" r:id="rId43" display="Doordie@100" xr:uid="{086E5345-8096-4F2E-8484-2CA63A6338B5}"/>
-    <hyperlink ref="C9" r:id="rId44" display="Doordie@100" xr:uid="{8FF4D999-170A-49C8-A95D-038EAFE9807D}"/>
-    <hyperlink ref="C10" r:id="rId45" display="Doordie@100" xr:uid="{36987A20-7E5E-4D7A-B8B4-5F0F72540D10}"/>
-    <hyperlink ref="C11" r:id="rId46" display="Doordie@100" xr:uid="{F29E61B6-090D-4BB0-9C63-66795D5D6404}"/>
-    <hyperlink ref="C12" r:id="rId47" display="Doordie@100" xr:uid="{2763913D-E109-43A3-B959-FCD2F9234438}"/>
-    <hyperlink ref="C13" r:id="rId48" display="Doordie@100" xr:uid="{5AACEC40-7D66-4DC7-944D-1BD8C44C4693}"/>
-    <hyperlink ref="C14" r:id="rId49" display="Doordie@100" xr:uid="{6E4A8AED-36E0-4A11-9D7F-FED15F3683CC}"/>
-    <hyperlink ref="C15" r:id="rId50" display="Doordie@100" xr:uid="{CF75446F-BA0B-4C33-B213-4E1033D0C505}"/>
-    <hyperlink ref="C16" r:id="rId51" display="Doordie@100" xr:uid="{7A1CDF89-EBD0-41C1-A27E-178663425F1D}"/>
-    <hyperlink ref="C17" r:id="rId52" display="Doordie@100" xr:uid="{D67C095E-3233-454C-81B4-7C79E945566E}"/>
-    <hyperlink ref="C18" r:id="rId53" display="Doordie@100" xr:uid="{3C02E397-C7A7-4497-974A-EB4B88830A53}"/>
-    <hyperlink ref="C19" r:id="rId54" display="Doordie@100" xr:uid="{A16BBD27-16CD-454E-B431-67BBA0106389}"/>
-    <hyperlink ref="B20" r:id="rId55" xr:uid="{5E51053F-C15A-4D73-8AA3-394EE53F0048}"/>
-    <hyperlink ref="A20" r:id="rId56" xr:uid="{DB373907-56EE-4073-A331-0139B2D2E8D7}"/>
-    <hyperlink ref="C20" r:id="rId57" display="Doordie@100" xr:uid="{894BD5D1-E222-4454-BF47-F8B6C7CF3822}"/>
-    <hyperlink ref="B21" r:id="rId58" xr:uid="{F329B2B6-6CFA-4FB8-9B1E-9BB823CEEC0E}"/>
-    <hyperlink ref="A21" r:id="rId59" xr:uid="{F9B22ABE-76C2-4ED5-ACB8-2C3213D853F5}"/>
-    <hyperlink ref="C21" r:id="rId60" display="Doordie@100" xr:uid="{7FCFDB99-A1A6-41F3-A2E4-BDF09DADF1EC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32C639-9751-46C8-AB5C-5BEC34FB1F52}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="38.81640625" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" customWidth="1"/>
     <col min="3" max="3" width="18.453125" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" customWidth="1"/>
     <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.90625" customWidth="1"/>
+    <col min="7" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="27.36328125" customWidth="1"/>
+    <col min="10" max="11" width="14.7265625" customWidth="1"/>
+    <col min="12" max="13" width="33.08984375" customWidth="1"/>
+    <col min="14" max="14" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5044,416 +5796,978 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>122</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>122</v>
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>148</v>
+      </c>
+      <c r="F9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>122</v>
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>157</v>
+      </c>
+      <c r="F14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>122</v>
+        <v>159</v>
+      </c>
+      <c r="F15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>122</v>
+        <v>160</v>
+      </c>
+      <c r="F16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>122</v>
+        <v>162</v>
+      </c>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>122</v>
+        <v>156</v>
+      </c>
+      <c r="F18" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>164</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>167</v>
+      </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O21" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4F99C325-BADD-4539-8FF7-DFF9993CC9B2}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{7ABC8269-BEBA-413F-9FFB-2E2F0051B554}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{6CB65E85-93BE-4CDC-8F12-4040CEC19996}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{28A22044-90D0-499A-8746-046B44AEFF3F}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{277BD9FA-6222-4AC3-84E2-A24C2C48DA5A}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{6C604675-9F97-4D10-ABBF-50CABC772C94}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{4CB2E585-F603-439E-AC19-56B81367A4E5}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{B230F806-4E39-45AD-A17E-41E4ECC0D055}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{361652F5-73AA-4CC4-9888-046C5044B9BA}"/>
-    <hyperlink ref="B9" r:id="rId10" xr:uid="{409A400F-C316-4385-813B-4CA57017549D}"/>
-    <hyperlink ref="B10" r:id="rId11" xr:uid="{15568EF4-3090-4A22-A607-4CD5A183B976}"/>
-    <hyperlink ref="B11" r:id="rId12" xr:uid="{B1F3CAD1-0126-4585-B3A7-66AB2C59407F}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{E910639B-A1A6-4781-908F-1E8176B15E84}"/>
-    <hyperlink ref="B13" r:id="rId14" xr:uid="{6D9812E2-4B53-4A24-A730-A8E5FDE70639}"/>
-    <hyperlink ref="B14" r:id="rId15" xr:uid="{74149AD4-F969-478C-896D-AEBC6858CA9A}"/>
-    <hyperlink ref="B15" r:id="rId16" xr:uid="{B2C5CF3F-4946-4ACB-9E39-0A6F78C22A4B}"/>
-    <hyperlink ref="B16" r:id="rId17" xr:uid="{036CEE2D-AF45-42B1-AB48-0949D74CBFAE}"/>
-    <hyperlink ref="B17" r:id="rId18" xr:uid="{062BDD05-579C-4A7B-9602-F1FBF272B345}"/>
-    <hyperlink ref="B18" r:id="rId19" xr:uid="{98B3CFE0-B7BA-42C3-80FE-A2961ACDA81A}"/>
-    <hyperlink ref="B19" r:id="rId20" xr:uid="{CD0ADD6A-A56F-4F6C-AFB9-8B7F11F93DC5}"/>
-    <hyperlink ref="A3" r:id="rId21" xr:uid="{9C1324AB-BF6B-4E59-9D11-26F6CC4F70A7}"/>
-    <hyperlink ref="A4" r:id="rId22" xr:uid="{497721FE-2A87-44F1-A8FF-E46AA030415F}"/>
-    <hyperlink ref="A5" r:id="rId23" xr:uid="{623D0151-AAFF-4895-923A-6ACCAC416534}"/>
-    <hyperlink ref="A6" r:id="rId24" xr:uid="{A708FA40-1D15-4064-B877-F4C245BEFE38}"/>
-    <hyperlink ref="A7" r:id="rId25" xr:uid="{AE800CC3-DD5B-45FC-9ACA-384276C86E20}"/>
-    <hyperlink ref="A8" r:id="rId26" xr:uid="{382B43C3-5FBA-4FA1-92F2-70381A0DFB75}"/>
-    <hyperlink ref="A9" r:id="rId27" xr:uid="{D9139641-735A-4805-B0AF-F42956EFB364}"/>
-    <hyperlink ref="A10" r:id="rId28" xr:uid="{E9E8B172-08FB-48B9-A092-FCB4FE13DB6E}"/>
-    <hyperlink ref="A11" r:id="rId29" xr:uid="{40753906-66B1-4B92-AF47-3D7D4C2CE0D7}"/>
-    <hyperlink ref="A12" r:id="rId30" xr:uid="{7A3D51B6-4198-4B90-A376-2DA3375BD19E}"/>
-    <hyperlink ref="A13" r:id="rId31" xr:uid="{E27D25D3-D2B8-4672-94F2-4CC9BE0AC9A0}"/>
-    <hyperlink ref="A14" r:id="rId32" xr:uid="{B5247CCE-1CB3-42B3-A0E4-5BB1E907D260}"/>
-    <hyperlink ref="A15" r:id="rId33" xr:uid="{724BA3B9-3DDB-4F82-A177-2314A76CA10C}"/>
-    <hyperlink ref="A16" r:id="rId34" xr:uid="{9D3760B7-42D4-4417-8D72-0E9F43BB1AC6}"/>
-    <hyperlink ref="A17" r:id="rId35" xr:uid="{4296078F-1DF6-44C6-8165-64087A02D880}"/>
-    <hyperlink ref="A18" r:id="rId36" xr:uid="{54988E20-0E8D-48E7-ACA3-ADEB736CBDA6}"/>
-    <hyperlink ref="A19" r:id="rId37" xr:uid="{3A765DFB-A714-46EC-9A42-FF1546847688}"/>
-    <hyperlink ref="C3" r:id="rId38" display="Doordie@100" xr:uid="{AEA7299B-8B6C-4A47-B828-EC2CD1E69A2F}"/>
-    <hyperlink ref="C4" r:id="rId39" display="Doordie@100" xr:uid="{2123834E-2AB0-4FD0-A772-6410CB7B9DDC}"/>
-    <hyperlink ref="C5" r:id="rId40" display="Doordie@100" xr:uid="{915C0A94-390C-434B-8F42-6E12AE1A80EA}"/>
-    <hyperlink ref="C6" r:id="rId41" display="Doordie@100" xr:uid="{CB5B6BEE-3C25-45A1-9C8F-259A3D8DF3DD}"/>
-    <hyperlink ref="C7" r:id="rId42" display="Doordie@100" xr:uid="{EB92853D-1B9A-4CC4-A9AF-8BD0CF635D93}"/>
-    <hyperlink ref="C8" r:id="rId43" display="Doordie@100" xr:uid="{27D02071-2945-432F-A685-A34B38B87FF1}"/>
-    <hyperlink ref="C9" r:id="rId44" display="Doordie@100" xr:uid="{1EC24A2E-1598-497C-B6F8-4DCA908AA5ED}"/>
-    <hyperlink ref="C10" r:id="rId45" display="Doordie@100" xr:uid="{0AE794E9-6E03-46F4-AED0-9C5B42198439}"/>
-    <hyperlink ref="C11" r:id="rId46" display="Doordie@100" xr:uid="{3386A85A-BD1C-4EB3-8A54-6075BB8A7896}"/>
-    <hyperlink ref="C12" r:id="rId47" display="Doordie@100" xr:uid="{0A85EB4E-C79D-44C0-A44D-62C8A115A2C8}"/>
-    <hyperlink ref="C13" r:id="rId48" display="Doordie@100" xr:uid="{4BADA009-DDEA-46A6-8277-F669034CF813}"/>
-    <hyperlink ref="C14" r:id="rId49" display="Doordie@100" xr:uid="{55C4C899-9B25-49B3-A9EA-AEB10110EA05}"/>
-    <hyperlink ref="C15" r:id="rId50" display="Doordie@100" xr:uid="{D6C4D5D9-54E1-4CA0-B62F-717B9F53941F}"/>
-    <hyperlink ref="C16" r:id="rId51" display="Doordie@100" xr:uid="{0D42D67E-2ED6-4047-9699-A71C160124A1}"/>
-    <hyperlink ref="C17" r:id="rId52" display="Doordie@100" xr:uid="{016D6C34-A27E-461E-955A-E8C1B59BC6A3}"/>
-    <hyperlink ref="C18" r:id="rId53" display="Doordie@100" xr:uid="{0912A058-6BC9-4829-BBB0-BB4150EB54FD}"/>
-    <hyperlink ref="C19" r:id="rId54" display="Doordie@100" xr:uid="{0000B1EE-C3DE-4F49-9192-A20721FCA24A}"/>
-    <hyperlink ref="B20" r:id="rId55" xr:uid="{61EE19D2-61C7-4621-89F9-931628FDA0CE}"/>
-    <hyperlink ref="A20" r:id="rId56" xr:uid="{5A193398-5151-422F-AE3D-71AAC9233E3B}"/>
-    <hyperlink ref="C20" r:id="rId57" display="Doordie@100" xr:uid="{AB6997F5-F217-43AC-A562-C1CB83CDF394}"/>
-    <hyperlink ref="B21" r:id="rId58" xr:uid="{9E823B61-1094-4EA3-AB8A-DC61FD51D55A}"/>
-    <hyperlink ref="A21" r:id="rId59" xr:uid="{DFC58A2C-23BA-4B78-A4DF-2CF122095EF1}"/>
-    <hyperlink ref="C21" r:id="rId60" display="Doordie@100" xr:uid="{6454D373-2E82-4E37-92B1-8FB89EB2A214}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5463,7 +6777,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5482,10 +6796,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -5502,13 +6816,13 @@
         <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5539,10 +6853,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -5553,13 +6867,13 @@
         <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5572,408 +6886,530 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D33E6F-A6B1-4616-954D-27E1D6F16508}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="2" max="3" width="26.6328125" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
         <v>187</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" t="s">
+        <v>196</v>
+      </c>
+      <c r="I12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" t="s">
         <v>192</v>
       </c>
-      <c r="G1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" t="s">
         <v>198</v>
       </c>
-      <c r="E2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" t="s">
-        <v>217</v>
+      <c r="J16" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4D03F68A-C2E4-4D0F-A0D2-08A45B4C5398}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{F7B99411-598A-49BE-934E-C540226F5D84}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{6BF81A2B-86FF-406A-B08E-B8045FAC4EA4}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{1C3EC6FB-407E-4007-95D8-EFDE35B025DE}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{5E880602-A850-4B92-A8F1-4DD8E5245D05}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{3EBEEBCE-9F60-4214-9C2B-528477464C2F}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{CBC96C1F-9C85-4E6E-9AA6-554A8F199DE5}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{F3F9A1E9-E5F1-4001-A6C5-679D9E23EFCD}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{13A8E850-673A-46FF-871E-3785BA88C85D}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{A2F67EE0-32F2-474B-BCFE-1C8B72D9A5B2}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{9D6477F5-E69C-4D79-B776-B469E6CF91F7}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{0210A67F-8C03-4775-BA6C-E86020F05869}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{47C17F50-9964-4ED3-B6D0-C77D4A34FC5A}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{067430A8-550F-4A32-97CC-74BD3CC02A75}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{63128FBD-EEBF-4A51-A57A-7EC073A278D0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/HotelsScripts_Skytravelers.xlsx
+++ b/src/test/resources/testdata/HotelsScripts_Skytravelers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915AFD9C-3AA5-4BB9-9478-36243E05603A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1CF937-9158-4E07-800E-1A9D53B99806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="8" xr2:uid="{512D99D7-B637-4054-871A-E0DB86511A8A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="5" xr2:uid="{512D99D7-B637-4054-871A-E0DB86511A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="TCHO_1" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="232">
   <si>
     <t>TestRun</t>
   </si>
@@ -697,9 +697,6 @@
     <t>TravellerSearchValue2</t>
   </si>
   <si>
-    <t>testfinance98@tripgain.com</t>
-  </si>
-  <si>
     <t>Status2</t>
   </si>
   <si>
@@ -740,6 +737,9 @@
   </si>
   <si>
     <t>bhuvaneswar</t>
+  </si>
+  <si>
+    <t>testfinanceadmin98@tripgain.com</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -852,6 +852,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2049,7 +2052,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2864,7 +2867,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4639,10 +4642,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9BB05B-65AF-4EA0-B284-D37B978614F7}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4656,7 +4659,7 @@
     <col min="7" max="7" width="21.453125" customWidth="1"/>
     <col min="9" max="9" width="28.08984375" customWidth="1"/>
     <col min="12" max="12" width="27.7265625" customWidth="1"/>
-    <col min="13" max="13" width="26.36328125" customWidth="1"/>
+    <col min="13" max="13" width="35.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -4700,13 +4703,13 @@
         <v>216</v>
       </c>
       <c r="N1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>202</v>
       </c>
@@ -4738,13 +4741,13 @@
         <v>212</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>217</v>
+      <c r="M2" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>214</v>
@@ -4782,19 +4785,16 @@
         <v>212</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>217</v>
+      <c r="M3" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -4829,19 +4829,16 @@
         <v>212</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>217</v>
+      <c r="M4" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -4876,19 +4873,16 @@
         <v>212</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>217</v>
+      <c r="M5" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -4923,19 +4917,16 @@
         <v>212</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>217</v>
+      <c r="M6" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -4970,19 +4961,16 @@
         <v>212</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>217</v>
+      <c r="M7" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -5017,19 +5005,16 @@
         <v>212</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>217</v>
+      <c r="M8" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -5064,19 +5049,16 @@
         <v>212</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>217</v>
+      <c r="M9" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -5111,19 +5093,16 @@
         <v>212</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>217</v>
+      <c r="M10" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -5158,19 +5137,16 @@
         <v>212</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>217</v>
+      <c r="M11" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O11" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -5205,19 +5181,16 @@
         <v>212</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>217</v>
+      <c r="M12" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -5252,19 +5225,16 @@
         <v>212</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>217</v>
+      <c r="M13" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -5299,19 +5269,16 @@
         <v>212</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>217</v>
+      <c r="M14" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -5346,19 +5313,16 @@
         <v>212</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>217</v>
+      <c r="M15" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -5393,22 +5357,19 @@
         <v>212</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>217</v>
+      <c r="M16" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>202</v>
       </c>
@@ -5440,22 +5401,19 @@
         <v>212</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>217</v>
+      <c r="M17" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>202</v>
       </c>
@@ -5487,22 +5445,19 @@
         <v>212</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>217</v>
+      <c r="M18" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>202</v>
       </c>
@@ -5534,22 +5489,19 @@
         <v>212</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>217</v>
+      <c r="M19" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>202</v>
       </c>
@@ -5581,22 +5533,19 @@
         <v>212</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>217</v>
+      <c r="M20" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>202</v>
       </c>
@@ -5628,133 +5577,1344 @@
         <v>212</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M21" s="8" t="s">
-        <v>217</v>
+      <c r="M21" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D25" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D36" s="1" t="s">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D37" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="D40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="1" t="s">
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D42" s="1" t="s">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D43" s="1" t="s">
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M43" s="11" t="s">
         <v>231</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>207</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{CCA707E1-4567-4C38-B7DE-0422E4B7EFEF}"/>
+    <hyperlink ref="M3:M51" r:id="rId2" display="testfinanceadmin98@tripgain.com" xr:uid="{55372BF5-A41F-4C9E-9C8A-42BFEAD79DED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5763,8 +6923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32C639-9751-46C8-AB5C-5BEC34FB1F52}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5823,7 +6983,7 @@
         <v>216</v>
       </c>
       <c r="N1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
@@ -5861,13 +7021,13 @@
         <v>212</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>217</v>
+      <c r="M2" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>214</v>
@@ -5905,13 +7065,13 @@
         <v>212</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>217</v>
+      <c r="M3" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>214</v>
@@ -5952,13 +7112,13 @@
         <v>212</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>217</v>
+      <c r="M4" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>214</v>
@@ -5999,13 +7159,13 @@
         <v>212</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>217</v>
+      <c r="M5" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>214</v>
@@ -6046,13 +7206,13 @@
         <v>212</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>217</v>
+      <c r="M6" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>214</v>
@@ -6093,13 +7253,13 @@
         <v>212</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>217</v>
+      <c r="M7" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>214</v>
@@ -6140,13 +7300,13 @@
         <v>212</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>217</v>
+      <c r="M8" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>214</v>
@@ -6187,13 +7347,13 @@
         <v>212</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>217</v>
+      <c r="M9" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>214</v>
@@ -6234,13 +7394,13 @@
         <v>212</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>217</v>
+      <c r="M10" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>214</v>
@@ -6281,13 +7441,13 @@
         <v>212</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>217</v>
+      <c r="M11" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>214</v>
@@ -6328,13 +7488,13 @@
         <v>212</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>217</v>
+      <c r="M12" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>214</v>
@@ -6375,13 +7535,13 @@
         <v>212</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>217</v>
+      <c r="M13" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>214</v>
@@ -6422,13 +7582,13 @@
         <v>212</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>217</v>
+      <c r="M14" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>214</v>
@@ -6469,13 +7629,13 @@
         <v>212</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>217</v>
+      <c r="M15" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>214</v>
@@ -6516,13 +7676,13 @@
         <v>212</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>217</v>
+      <c r="M16" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N16" s="10" t="s">
         <v>214</v>
@@ -6563,13 +7723,13 @@
         <v>212</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>217</v>
+      <c r="M17" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>214</v>
@@ -6610,13 +7770,13 @@
         <v>212</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>217</v>
+      <c r="M18" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>214</v>
@@ -6657,13 +7817,13 @@
         <v>212</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>217</v>
+      <c r="M19" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>214</v>
@@ -6704,13 +7864,13 @@
         <v>212</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>217</v>
+      <c r="M20" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>214</v>
@@ -6751,13 +7911,13 @@
         <v>212</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>203</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>214</v>
@@ -6768,6 +7928,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{9BEAB127-63D2-4FEF-A0FF-397BA8766D43}"/>
+    <hyperlink ref="M3:M20" r:id="rId2" display="testfinanceadmin98@tripgain.com" xr:uid="{68F8BB36-A177-4C38-B645-680DBC174201}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6888,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D33E6F-A6B1-4616-954D-27E1D6F16508}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6989,9 +8153,6 @@
       <c r="I3" t="s">
         <v>126</v>
       </c>
-      <c r="J3" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -7021,9 +8182,6 @@
       <c r="I4" t="s">
         <v>125</v>
       </c>
-      <c r="J4" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -7053,9 +8211,6 @@
       <c r="I5" t="s">
         <v>155</v>
       </c>
-      <c r="J5" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -7085,9 +8240,6 @@
       <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -7117,9 +8269,6 @@
       <c r="I7" t="s">
         <v>201</v>
       </c>
-      <c r="J7" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -7149,9 +8298,6 @@
       <c r="I8" t="s">
         <v>47</v>
       </c>
-      <c r="J8" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -7181,9 +8327,6 @@
       <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="J9" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -7213,9 +8356,6 @@
       <c r="I10" t="s">
         <v>196</v>
       </c>
-      <c r="J10" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -7245,9 +8385,6 @@
       <c r="I11" t="s">
         <v>197</v>
       </c>
-      <c r="J11" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -7277,9 +8414,6 @@
       <c r="I12" t="s">
         <v>140</v>
       </c>
-      <c r="J12" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -7309,9 +8443,6 @@
       <c r="I13" t="s">
         <v>194</v>
       </c>
-      <c r="J13" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -7341,9 +8472,6 @@
       <c r="I14" t="s">
         <v>199</v>
       </c>
-      <c r="J14" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -7373,9 +8501,6 @@
       <c r="I15" t="s">
         <v>154</v>
       </c>
-      <c r="J15" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -7404,9 +8529,6 @@
       </c>
       <c r="I16" t="s">
         <v>198</v>
-      </c>
-      <c r="J16" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/HotelsScripts_Skytravelers.xlsx
+++ b/src/test/resources/testdata/HotelsScripts_Skytravelers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1CF937-9158-4E07-800E-1A9D53B99806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B204E9-B5B8-4465-95AA-01CB22B3ADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="5" xr2:uid="{512D99D7-B637-4054-871A-E0DB86511A8A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="6" xr2:uid="{512D99D7-B637-4054-871A-E0DB86511A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="TCHO_1" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,16 @@
     <sheet name="TCHO_3" sheetId="4" r:id="rId3"/>
     <sheet name="TCHO_4" sheetId="5" r:id="rId4"/>
     <sheet name="TCND_1" sheetId="6" r:id="rId5"/>
-    <sheet name="TCNDBU_1" sheetId="7" r:id="rId6"/>
-    <sheet name="TCNDTR_1" sheetId="8" r:id="rId7"/>
-    <sheet name="TCNDTR_2" sheetId="9" r:id="rId8"/>
-    <sheet name="TCNDTR_3" sheetId="10" r:id="rId9"/>
+    <sheet name="TCNDNEW_2" sheetId="15" r:id="rId6"/>
+    <sheet name="TCNDNEW_3" sheetId="16" r:id="rId7"/>
+    <sheet name="TCNDBU_1" sheetId="7" r:id="rId8"/>
+    <sheet name="TCNDBUNEW_2" sheetId="12" r:id="rId9"/>
+    <sheet name="exampletest" sheetId="11" r:id="rId10"/>
+    <sheet name="TCNDTR_1" sheetId="8" r:id="rId11"/>
+    <sheet name="TCNDTR_2" sheetId="9" r:id="rId12"/>
+    <sheet name="TCNDTR_3" sheetId="10" r:id="rId13"/>
+    <sheet name="TCNDBUNEW_3" sheetId="13" r:id="rId14"/>
+    <sheet name="TCNDBUNEW_4" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="233">
   <si>
     <t>TestRun</t>
   </si>
@@ -740,6 +746,9 @@
   </si>
   <si>
     <t>testfinanceadmin98@tripgain.com</t>
+  </si>
+  <si>
+    <t>https://weatherstack.com/</t>
   </si>
 </sst>
 </file>
@@ -2047,6 +2056,792 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015B3CF-9070-4AB0-A8B1-769A8784C11C}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CCBB0-59C0-48CB-A87A-0B0C4F1FD065}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BF67F2E5-ACB9-4272-AE60-74BC4C8AE484}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{8E026CDC-0730-4A08-BD6A-9CFBA157B452}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{65D881A0-E022-427D-A2CD-B9A87CDED0BE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B601A09D-93F0-4AB8-824B-DB778A997F8A}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6D3AE3D9-E367-4D99-ACCE-913BEA8920F0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D33E6F-A6B1-4616-954D-27E1D6F16508}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G23" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="2" max="3" width="26.6328125" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" t="s">
+        <v>196</v>
+      </c>
+      <c r="I12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2A165B-C0AE-450E-8DD8-0A7073A78BBC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0097D35B-A3B5-43FF-807C-CC910EC043F4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107EA393-FD9F-46E8-BF36-FFB845826B0B}">
   <dimension ref="A1:L20"/>
@@ -4644,8 +5439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9BB05B-65AF-4EA0-B284-D37B978614F7}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6920,11 +7715,229 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1594D560-AC0A-434C-82B6-21B802CD2CA5}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{7F7B95CD-2341-4E68-B495-28B6BB9649F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB3B9C7-1D29-41A4-A6B6-F0B4AE1BA7DB}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{A7158982-B3E9-4C29-A775-F8E84CFD6D5D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32C639-9751-46C8-AB5C-5BEC34FB1F52}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7076,9 +8089,6 @@
       <c r="N3" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O3" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -7123,9 +8133,6 @@
       <c r="N4" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O4" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -7170,9 +8177,6 @@
       <c r="N5" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O5" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -7217,9 +8221,6 @@
       <c r="N6" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O6" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -7264,9 +8265,6 @@
       <c r="N7" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="O7" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -7310,9 +8308,6 @@
       </c>
       <c r="N8" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="O8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -7936,17 +8931,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CCBB0-59C0-48CB-A87A-0B0C4F1FD065}">
-  <dimension ref="A1:G2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0141A322-4E7A-40FA-A28F-5FC73A1002A7}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7963,572 +8958,24 @@
         <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>122</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E2" t="s">
         <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{BF67F2E5-ACB9-4272-AE60-74BC4C8AE484}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{8E026CDC-0730-4A08-BD6A-9CFBA157B452}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{65D881A0-E022-427D-A2CD-B9A87CDED0BE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B601A09D-93F0-4AB8-824B-DB778A997F8A}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6D3AE3D9-E367-4D99-ACCE-913BEA8920F0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D33E6F-A6B1-4616-954D-27E1D6F16508}">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G23" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
-    <col min="2" max="3" width="26.6328125" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" t="s">
-        <v>194</v>
-      </c>
-      <c r="H8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>195</v>
-      </c>
-      <c r="I10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" t="s">
-        <v>155</v>
-      </c>
-      <c r="H12" t="s">
-        <v>196</v>
-      </c>
-      <c r="I12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
